--- a/Макеты/03/ВА_ИмпортExcel+Меркурий.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Меркурий.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B76E89-50AC-4D7F-BBF8-2C3E2DCE774D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81CAEAD-8B80-4246-A466-2553F7E90978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>Контрагенты_Наименование</t>
   </si>
@@ -138,13 +138,31 @@
   </si>
   <si>
     <t>Ио-002 от 01.01.2024</t>
+  </si>
+  <si>
+    <t>Номенклатура_Артикул</t>
+  </si>
+  <si>
+    <t>2900001970198</t>
+  </si>
+  <si>
+    <t>2900001871419</t>
+  </si>
+  <si>
+    <t>4601546106674</t>
+  </si>
+  <si>
+    <t>2900001916059</t>
+  </si>
+  <si>
+    <t>2900001871389</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -163,6 +181,12 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -238,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -287,6 +311,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,19 +711,21 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="35.33203125" style="1" customWidth="1"/>
-    <col min="9" max="14" width="16.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="18" customWidth="1"/>
+    <col min="7" max="9" width="35.33203125" style="1" customWidth="1"/>
+    <col min="10" max="15" width="16.1640625" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -694,7 +733,7 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" s="17"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -703,8 +742,9 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="15" t="s">
         <v>0</v>
@@ -718,57 +758,61 @@
       <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -776,27 +820,28 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6"/>
+      <c r="F6" s="17"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="5">
+      <c r="I6"/>
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6">
+      <c r="K6" s="5"/>
+      <c r="L6" s="6">
         <v>4</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>600000</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>5</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>700000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -804,21 +849,22 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7"/>
+      <c r="F7" s="17"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="5">
+      <c r="I7"/>
+      <c r="J7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <v>999</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -826,27 +872,28 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8"/>
+      <c r="F8" s="17"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="6">
+      <c r="I8"/>
+      <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6">
+      <c r="K8" s="5"/>
+      <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>6633000</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>4</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>7495400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -854,21 +901,22 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9"/>
+      <c r="F9" s="17"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9" s="5">
+      <c r="I9"/>
+      <c r="J9" s="5">
         <v>30</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>999</v>
       </c>
-      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -876,21 +924,22 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10"/>
+      <c r="F10" s="17"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10" s="5">
+      <c r="I10"/>
+      <c r="J10" s="5">
         <v>20</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>999</v>
       </c>
-      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -898,21 +947,22 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11"/>
+      <c r="F11" s="17"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11" s="5">
+      <c r="I11"/>
+      <c r="J11" s="5">
         <v>10</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>999</v>
       </c>
-      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="10" t="s">
         <v>15</v>
@@ -920,29 +970,30 @@
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12"/>
+      <c r="F12" s="17"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12" s="6">
+      <c r="I12"/>
+      <c r="J12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>780000</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>6</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>858000</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>8</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>969500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="10" t="s">
         <v>16</v>
@@ -950,29 +1001,30 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13"/>
+      <c r="F13" s="17"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13" s="6">
+      <c r="I13"/>
+      <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>5250000</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>9</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>5775000</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>12</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>6525900</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -980,21 +1032,22 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14"/>
+      <c r="F14" s="17"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" s="5">
+      <c r="I14"/>
+      <c r="J14" s="5">
         <v>10</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <v>999</v>
       </c>
-      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="10" t="s">
         <v>15</v>
@@ -1004,29 +1057,30 @@
       </c>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15"/>
+      <c r="F15" s="17"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" s="6">
+      <c r="I15"/>
+      <c r="J15" s="6">
         <v>4</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>780000</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>6</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>858000</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>8</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>969500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="10" t="s">
         <v>16</v>
@@ -1036,29 +1090,30 @@
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16"/>
+      <c r="F16" s="17"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="6">
+      <c r="I16"/>
+      <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>5250000</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>9</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>5775000</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>12</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>6525900</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1066,21 +1121,22 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17"/>
+      <c r="F17" s="17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="5">
+      <c r="I17"/>
+      <c r="J17" s="5">
         <v>10</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>999</v>
       </c>
-      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -1088,21 +1144,22 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18"/>
+      <c r="F18" s="17"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="5">
+      <c r="I18"/>
+      <c r="J18" s="5">
         <v>10</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <v>999</v>
       </c>
-      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -1116,33 +1173,36 @@
       <c r="E19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>22</v>
+      <c r="F19" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H19"/>
-      <c r="I19" s="6">
+      <c r="H19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" s="6">
         <v>2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>180000</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>198000</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>4</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>223700</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="10" t="s">
         <v>15</v>
@@ -1156,33 +1216,36 @@
       <c r="E20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>22</v>
+      <c r="F20" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H20"/>
-      <c r="I20" s="6">
+      <c r="H20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>600000</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>660000</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>4</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>745800</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="10" t="s">
         <v>16</v>
@@ -1196,33 +1259,36 @@
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
+      <c r="F21" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H21"/>
-      <c r="I21" s="6">
+      <c r="H21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21" s="6">
         <v>2</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>1250000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>1375000</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>4</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>1553800</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="10" t="s">
         <v>16</v>
@@ -1236,33 +1302,36 @@
       <c r="E22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>25</v>
+      <c r="F22" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H22"/>
-      <c r="I22" s="6">
+      <c r="H22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22" s="6">
         <v>2</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>2050000</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <v>3</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>2255000</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>4</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>2548200</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="10" t="s">
         <v>16</v>
@@ -1276,33 +1345,36 @@
       <c r="E23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>25</v>
+      <c r="F23" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H23"/>
-      <c r="I23" s="6">
+      <c r="H23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>1950000</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>3</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="7">
         <v>2145000</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>4</v>
       </c>
-      <c r="N23" s="7">
+      <c r="O23" s="7">
         <v>2423900</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
@@ -1310,21 +1382,22 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" s="17"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" s="5">
+      <c r="I24"/>
+      <c r="J24" s="5">
         <v>10</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
         <v>999</v>
       </c>
-      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>29</v>
       </c>
@@ -1332,21 +1405,22 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25"/>
+      <c r="F25" s="17"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" s="5">
+      <c r="I25"/>
+      <c r="J25" s="5">
         <v>10</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
         <v>999</v>
       </c>
-      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="10" t="s">
         <v>15</v>
@@ -1360,35 +1434,38 @@
       <c r="E26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>22</v>
+      <c r="F26" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>180000</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>198000</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>4</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>223700</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="10" t="s">
         <v>15</v>
@@ -1402,35 +1479,38 @@
       <c r="E27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>22</v>
+      <c r="F27" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>2</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>600000</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>660000</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>4</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>745800</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="10" t="s">
         <v>16</v>
@@ -1444,35 +1524,38 @@
       <c r="E28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>25</v>
+      <c r="F28" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>1250000</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>3</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>1375000</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>4</v>
       </c>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>1553800</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="10" t="s">
         <v>16</v>
@@ -1486,35 +1569,38 @@
       <c r="E29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>25</v>
+      <c r="F29" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>2</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>2050000</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <v>3</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>2255000</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>4</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>2548200</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="10" t="s">
         <v>16</v>
@@ -1528,50 +1614,54 @@
       <c r="E30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>25</v>
+      <c r="F30" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <v>2</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>1950000</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <v>3</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>2145000</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>4</v>
       </c>
-      <c r="N30" s="7">
+      <c r="O30" s="7">
         <v>2423900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M4:N4"/>
+  <mergeCells count="12">
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
